--- a/Resultados/resultados_AG_ID1.xlsx
+++ b/Resultados/resultados_AG_ID1.xlsx
@@ -107,7 +107,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="0">
-        <v>66.154089600000006</v>
+        <v>80.109075200000007</v>
       </c>
     </row>
     <row r="3">
@@ -121,7 +121,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="0">
-        <v>66.154089600000006</v>
+        <v>80.109075200000007</v>
       </c>
     </row>
     <row r="4">
@@ -135,7 +135,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="0">
-        <v>66.154089600000006</v>
+        <v>80.109075200000007</v>
       </c>
     </row>
     <row r="5">
@@ -149,7 +149,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="0">
-        <v>66.154089600000006</v>
+        <v>80.109075200000007</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/resultados_AG_ID1.xlsx
+++ b/Resultados/resultados_AG_ID1.xlsx
@@ -6,8 +6,9 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elementos_dañados" sheetId="1" r:id="rId2"/>
+    <sheet name="Elementos_dañados" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
@@ -68,18 +69,18 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="true"/>
-    <col min="2" max="2" width="8.77734375" customWidth="true"/>
-    <col min="3" max="3" width="18.109375" customWidth="true"/>
-    <col min="4" max="4" width="17.6640625" customWidth="true"/>
+    <col min="1" max="1" width="12.42578125" customWidth="true"/>
+    <col min="2" max="2" width="9.7109375" customWidth="true"/>
+    <col min="3" max="3" width="19.5703125" customWidth="true"/>
+    <col min="4" max="4" width="19.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -107,49 +108,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="0">
-        <v>80.109075200000007</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0">
-        <v>3</v>
-      </c>
-      <c r="C3" s="0">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0">
-        <v>80.109075200000007</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0">
-        <v>80.109075200000007</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0">
-        <v>80.109075200000007</v>
+        <v>71.209242200000006</v>
       </c>
     </row>
   </sheetData>
